--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3753"/>
+  <dimension ref="A1:B3754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45469,6 +45469,18 @@
         </is>
       </c>
     </row>
+    <row r="3754">
+      <c r="A3754" t="inlineStr">
+        <is>
+          <t>10/30/2023</t>
+        </is>
+      </c>
+      <c r="B3754" t="inlineStr">
+        <is>
+          <t>$52.78</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3754"/>
+  <dimension ref="A1:B3758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45481,6 +45481,54 @@
         </is>
       </c>
     </row>
+    <row r="3755">
+      <c r="A3755" t="inlineStr">
+        <is>
+          <t>10/31/2023</t>
+        </is>
+      </c>
+      <c r="B3755" t="inlineStr">
+        <is>
+          <t>$52.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" t="inlineStr">
+        <is>
+          <t>11/01/2023</t>
+        </is>
+      </c>
+      <c r="B3756" t="inlineStr">
+        <is>
+          <t>$53.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" t="inlineStr">
+        <is>
+          <t>11/02/2023</t>
+        </is>
+      </c>
+      <c r="B3757" t="inlineStr">
+        <is>
+          <t>$54.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" t="inlineStr">
+        <is>
+          <t>11/03/2023</t>
+        </is>
+      </c>
+      <c r="B3758" t="inlineStr">
+        <is>
+          <t>$54.89</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3758"/>
+  <dimension ref="A1:B3761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45529,6 +45529,42 @@
         </is>
       </c>
     </row>
+    <row r="3759">
+      <c r="A3759" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
+        </is>
+      </c>
+      <c r="B3759" t="inlineStr">
+        <is>
+          <t>$54.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="B3760" t="inlineStr">
+        <is>
+          <t>$55.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
+        </is>
+      </c>
+      <c r="B3761" t="inlineStr">
+        <is>
+          <t>$55.98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3761"/>
+  <dimension ref="A1:B3762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45565,6 +45565,18 @@
         </is>
       </c>
     </row>
+    <row r="3762">
+      <c r="A3762" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+      <c r="B3762" t="inlineStr">
+        <is>
+          <t>$54.77</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3762"/>
+  <dimension ref="A1:B3763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45577,6 +45577,18 @@
         </is>
       </c>
     </row>
+    <row r="3763">
+      <c r="A3763" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B3763" t="inlineStr">
+        <is>
+          <t>$55.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGLT_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3763"/>
+  <dimension ref="A1:B3773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45589,6 +45589,126 @@
         </is>
       </c>
     </row>
+    <row r="3764">
+      <c r="A3764" t="inlineStr">
+        <is>
+          <t>11/13/2023</t>
+        </is>
+      </c>
+      <c r="B3764" t="inlineStr">
+        <is>
+          <t>$54.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" t="inlineStr">
+        <is>
+          <t>11/14/2023</t>
+        </is>
+      </c>
+      <c r="B3765" t="inlineStr">
+        <is>
+          <t>$56.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="B3766" t="inlineStr">
+        <is>
+          <t>$55.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" t="inlineStr">
+        <is>
+          <t>11/16/2023</t>
+        </is>
+      </c>
+      <c r="B3767" t="inlineStr">
+        <is>
+          <t>$56.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3768">
+      <c r="A3768" t="inlineStr">
+        <is>
+          <t>11/17/2023</t>
+        </is>
+      </c>
+      <c r="B3768" t="inlineStr">
+        <is>
+          <t>$56.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3769">
+      <c r="A3769" t="inlineStr">
+        <is>
+          <t>11/20/2023</t>
+        </is>
+      </c>
+      <c r="B3769" t="inlineStr">
+        <is>
+          <t>$56.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="3770">
+      <c r="A3770" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="B3770" t="inlineStr">
+        <is>
+          <t>$56.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3771">
+      <c r="A3771" t="inlineStr">
+        <is>
+          <t>11/22/2023</t>
+        </is>
+      </c>
+      <c r="B3771" t="inlineStr">
+        <is>
+          <t>$56.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="3772">
+      <c r="A3772" t="inlineStr">
+        <is>
+          <t>11/24/2023</t>
+        </is>
+      </c>
+      <c r="B3772" t="inlineStr">
+        <is>
+          <t>$56.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3773">
+      <c r="A3773" t="inlineStr">
+        <is>
+          <t>11/27/2023</t>
+        </is>
+      </c>
+      <c r="B3773" t="inlineStr">
+        <is>
+          <t>$56.94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
